--- a/output/fit_clients/fit_round_473.xlsx
+++ b/output/fit_clients/fit_round_473.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1819244801.840567</v>
+        <v>1771333193.349471</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08448531454291465</v>
+        <v>0.1118705870671038</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03199295441632388</v>
+        <v>0.0334074822982799</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>909622372.31734</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2202442788.039105</v>
+        <v>1647965791.639459</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1772449964484669</v>
+        <v>0.1740655061034893</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03131396977987906</v>
+        <v>0.04512630367006746</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1101221465.445879</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4396262074.328887</v>
+        <v>4376024253.36798</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1659764730150371</v>
+        <v>0.161734550078354</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02542331545612748</v>
+        <v>0.02662656324186523</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>171</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2198131079.448745</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3884004891.026094</v>
+        <v>2804101502.383729</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0764026085813759</v>
+        <v>0.09019975839733672</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04628534772069792</v>
+        <v>0.04017623129677015</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>175</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1942002456.906669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2128904216.607458</v>
+        <v>1864962308.608541</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1235071621195081</v>
+        <v>0.1168428443157053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04240964427792638</v>
+        <v>0.0483576155379574</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1064452123.969898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2856343198.278275</v>
+        <v>2619762323.075186</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09249637661664784</v>
+        <v>0.06525979803786636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03016916449460583</v>
+        <v>0.04751655690978109</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>148</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1428171577.891665</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2979592423.084224</v>
+        <v>2895999788.488845</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1666096447250607</v>
+        <v>0.1852368830914788</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03247825672087478</v>
+        <v>0.02999624320331798</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>151</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1489796266.988981</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1785783782.695389</v>
+        <v>1829483034.936379</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1353157949755498</v>
+        <v>0.1939129161819266</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03293601161886291</v>
+        <v>0.03516593673471086</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>892891947.6982771</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5307582542.436951</v>
+        <v>3810007994.24462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1345944186612758</v>
+        <v>0.2053013194422622</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04614509584976935</v>
+        <v>0.0508158959357911</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>199</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2653791394.356408</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2825584587.854113</v>
+        <v>3912558617.658821</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1230607064158557</v>
+        <v>0.1656003581148839</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04326536441208351</v>
+        <v>0.03946284393659762</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>195</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1412792224.714634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2492167500.945292</v>
+        <v>2928362899.279846</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1652870486868431</v>
+        <v>0.1882091048810507</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03722833098997703</v>
+        <v>0.04174000578254674</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>160</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1246083722.015553</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3958256249.413289</v>
+        <v>3917653129.371952</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1017794205312756</v>
+        <v>0.09672443041694011</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02428688487454918</v>
+        <v>0.02193407125103479</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1979128181.777018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2923661295.13547</v>
+        <v>3493974361.415893</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1306211389946357</v>
+        <v>0.1555342605854915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0385812327637309</v>
+        <v>0.04403194538070147</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1461830687.555646</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1508872669.145145</v>
+        <v>1147748498.063817</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07852247429201166</v>
+        <v>0.09240211895324367</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04659086682370074</v>
+        <v>0.03957733703192323</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>754436422.1032733</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2207108723.686995</v>
+        <v>2832180204.327268</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09159533066871524</v>
+        <v>0.1119715433563869</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04152431177894347</v>
+        <v>0.04387447241168827</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>98</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1103554418.860961</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4820747085.295052</v>
+        <v>4216702577.080514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1516517322751837</v>
+        <v>0.1291705470954023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05022618202808588</v>
+        <v>0.03234985361650245</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>139</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2410373536.720836</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2537297103.057479</v>
+        <v>3263051280.300038</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1227540850907262</v>
+        <v>0.1434441705733376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02194053057392456</v>
+        <v>0.02482113030825843</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>155</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1268648615.367517</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1148509745.05801</v>
+        <v>1367982415.871713</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1424541801495915</v>
+        <v>0.1271946338325568</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02690300826956197</v>
+        <v>0.02343171671742716</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>574254937.924808</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2665459768.862586</v>
+        <v>2760896830.536835</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1054178887691368</v>
+        <v>0.1012724465231599</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01981216775493679</v>
+        <v>0.03166461581334806</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>67</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1332729839.928445</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1934873467.831679</v>
+        <v>1645085578.249284</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08768865599356117</v>
+        <v>0.06436080755981015</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02871737759918676</v>
+        <v>0.04235376545568201</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>967436776.1181211</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2473088948.655892</v>
+        <v>2812747845.970828</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1263547031370714</v>
+        <v>0.1148741135589571</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05263487161908072</v>
+        <v>0.04664133898862722</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1236544567.4336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1299154009.788526</v>
+        <v>1550519896.300287</v>
       </c>
       <c r="F23" t="n">
-        <v>0.116920155476941</v>
+        <v>0.1203837571998626</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05477249644382527</v>
+        <v>0.04581034160749087</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>649577024.7171062</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2705768496.184097</v>
+        <v>3571097954.452104</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1113549558231027</v>
+        <v>0.1258796310312587</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02355828371664478</v>
+        <v>0.02746919138208905</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>138</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1352884303.136341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1276278082.619297</v>
+        <v>1211270829.364271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09449032471724557</v>
+        <v>0.1153502093444672</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02444946777211515</v>
+        <v>0.02368237471113052</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>638139041.7545651</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1420407574.856124</v>
+        <v>956277590.7006221</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0777682210148338</v>
+        <v>0.09246598361740435</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02888648411659856</v>
+        <v>0.03598168769767952</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>710203862.4109786</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3741847505.404517</v>
+        <v>4360476317.615512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1560841518953896</v>
+        <v>0.1472554506561581</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01926626392773205</v>
+        <v>0.01964763856681121</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>118</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1870923775.7209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3632474127.874449</v>
+        <v>2952837665.147919</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09951715126904327</v>
+        <v>0.122814812030996</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04232527713961735</v>
+        <v>0.03708829444896273</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1816237130.115703</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5698920899.068565</v>
+        <v>4828124676.042512</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1008082752081775</v>
+        <v>0.1208485249184218</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03288144872450818</v>
+        <v>0.0291890835600441</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>209</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2849460348.745089</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1787044334.606266</v>
+        <v>1741863560.262626</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1072728354113793</v>
+        <v>0.1215219437585869</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03533470982543567</v>
+        <v>0.03716135151026284</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>893522180.5288938</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1299346260.016272</v>
+        <v>1394338531.558573</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0989545437627997</v>
+        <v>0.07313075981623446</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04321176528492156</v>
+        <v>0.04304149800577493</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>649673058.1089885</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1259557117.806951</v>
+        <v>1625427361.352569</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07685441686247158</v>
+        <v>0.08178102863392893</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02909970062142143</v>
+        <v>0.03679801201580844</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>629778577.475451</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2383523206.070925</v>
+        <v>2994456779.101227</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1565074228331252</v>
+        <v>0.13198669532585</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04827624836573091</v>
+        <v>0.04895415408686247</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1191761651.175165</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1150325124.428478</v>
+        <v>1566682241.653803</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09430519931186743</v>
+        <v>0.08498801659864551</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02681460039691437</v>
+        <v>0.02677426208793144</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>575162575.4791245</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1268835367.288318</v>
+        <v>937592228.6137769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09179635113539765</v>
+        <v>0.0785903661273233</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03390603933391505</v>
+        <v>0.03944656446250103</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>634417643.2932522</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2041976227.474213</v>
+        <v>2313506317.415026</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1561190239870716</v>
+        <v>0.1783830903396761</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02687741751170205</v>
+        <v>0.01823855134783736</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>119</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1020988172.4107</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2268416022.583447</v>
+        <v>2590280287.603234</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09870772199392494</v>
+        <v>0.1053931663508876</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04018774132718676</v>
+        <v>0.04161110165543416</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1134208075.509833</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1770291944.946444</v>
+        <v>2122237680.987607</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1057354958248937</v>
+        <v>0.12170409575088</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02684197574073853</v>
+        <v>0.03642706138896821</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>885145983.564904</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1425256737.296946</v>
+        <v>1913185812.793983</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1857494293399457</v>
+        <v>0.1457410928384737</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02779324590519858</v>
+        <v>0.02226930444383345</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>712628450.4834768</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1517851460.99613</v>
+        <v>1579335163.945479</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1283666325997926</v>
+        <v>0.1334802430540129</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05550540003462844</v>
+        <v>0.04120587961292219</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>758925692.2458074</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2621884785.689337</v>
+        <v>1779797427.682161</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1631367675600781</v>
+        <v>0.1539061885301193</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04146813226708623</v>
+        <v>0.031723765008574</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>114</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1310942406.176269</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2997531530.706388</v>
+        <v>3189579360.822005</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08057709617741293</v>
+        <v>0.1028331067497051</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03866980145803104</v>
+        <v>0.04143815249555521</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1498765725.638377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1906761239.233809</v>
+        <v>2840878215.223927</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1780119371665134</v>
+        <v>0.2046210109856681</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0179432300540848</v>
+        <v>0.02203048862965723</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>165</v>
-      </c>
-      <c r="J43" t="n">
-        <v>953380727.9673859</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2174316449.347397</v>
+        <v>2204126728.150368</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06822198377011447</v>
+        <v>0.06982387119994433</v>
       </c>
       <c r="G44" t="n">
-        <v>0.029196370148636</v>
+        <v>0.03127865576307948</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1087158365.804593</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1885332353.161827</v>
+        <v>2204410298.080024</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1506326206845672</v>
+        <v>0.1268260345345485</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05552626876401826</v>
+        <v>0.05003365935972455</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>942666155.9527028</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4663332019.023249</v>
+        <v>3905062650.018952</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1448058969373542</v>
+        <v>0.1496418061029859</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05887137635586626</v>
+        <v>0.04977333448648336</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>168</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2331666017.030754</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3147924718.766839</v>
+        <v>4706683556.318195</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1968574913941773</v>
+        <v>0.1791712201078969</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04604395051217884</v>
+        <v>0.05377458974803206</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>127</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1573962310.299926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3107291638.851144</v>
+        <v>3916218835.323816</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07624696305280508</v>
+        <v>0.09064022959526785</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02693147903302153</v>
+        <v>0.02665728771774476</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>154</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1553645905.678652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1524636272.25656</v>
+        <v>1413250591.268588</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1595779914320928</v>
+        <v>0.1882540684337693</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03061479235547069</v>
+        <v>0.03430485163415561</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>762318164.3511735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3974829908.575825</v>
+        <v>3989358919.512688</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1301860042759672</v>
+        <v>0.1122055895507168</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04604531261008291</v>
+        <v>0.04929134711429175</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>162</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1987414944.781038</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1340556586.897334</v>
+        <v>1438552998.781309</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1192527952049667</v>
+        <v>0.1725140379932576</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05383676769243038</v>
+        <v>0.04596851451803251</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>670278322.2329959</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3384296394.575056</v>
+        <v>3911194485.673996</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1084692685834316</v>
+        <v>0.1117618948750845</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03980367986769093</v>
+        <v>0.06115913519907957</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>195</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1692148290.022537</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3571355468.991899</v>
+        <v>2435596718.86445</v>
       </c>
       <c r="F53" t="n">
-        <v>0.191081258952621</v>
+        <v>0.2036298395131052</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0326823199349957</v>
+        <v>0.03097511114395185</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>135</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1785677727.521693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3449351793.285019</v>
+        <v>4289294217.569504</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1612915401481096</v>
+        <v>0.147518018373266</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0422743963500818</v>
+        <v>0.03459074964899835</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>153</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1724675917.504621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3291640936.977101</v>
+        <v>3460863567.79086</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2073404788460949</v>
+        <v>0.1770068657238824</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02163708013493679</v>
+        <v>0.02761540557506847</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1645820412.134783</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1885785075.371147</v>
+        <v>1363030983.142065</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1511691940063677</v>
+        <v>0.1513660354501336</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0488249350675124</v>
+        <v>0.05113969361973582</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>942892522.7754622</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2884462661.31816</v>
+        <v>4369709070.362117</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1689311400734213</v>
+        <v>0.1197810863070598</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02034579966588463</v>
+        <v>0.02177681070056685</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>150</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1442231325.385674</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1169999006.148379</v>
+        <v>1823507740.398197</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1320857751980369</v>
+        <v>0.1977177846433098</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03444486008256629</v>
+        <v>0.03024912411928287</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>584999564.3419657</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4301799264.643785</v>
+        <v>5029054565.736236</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1168377376453551</v>
+        <v>0.1145331666877875</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04852237419431685</v>
+        <v>0.03432410317043313</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>129</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2150899593.741201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3742756012.117332</v>
+        <v>2622205363.57735</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1496837777817481</v>
+        <v>0.1982961272838393</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02715879181334447</v>
+        <v>0.02336325432594953</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1871378154.340044</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3380342783.731455</v>
+        <v>3167469497.049359</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1114446482427207</v>
+        <v>0.145499947958898</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02981757496341152</v>
+        <v>0.02897262711283657</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>161</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1690171336.484998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1440435547.183539</v>
+        <v>2019541200.255461</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1672772122208209</v>
+        <v>0.1272449864717775</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03956984586471021</v>
+        <v>0.04752679384652123</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>720217747.747716</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4637866937.179144</v>
+        <v>4208335939.331205</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07336275353388361</v>
+        <v>0.09288239939627807</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02885833816856034</v>
+        <v>0.04714068468946291</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2318933502.56099</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3515187624.554835</v>
+        <v>5246826015.602164</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1766926610770674</v>
+        <v>0.1159385364444786</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02972708683544855</v>
+        <v>0.02245364756778971</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>147</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1757593814.060628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4135342130.148193</v>
+        <v>4773655937.850283</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1400776890110632</v>
+        <v>0.1565741407225597</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02303034175901474</v>
+        <v>0.02525921529892644</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>169</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2067671075.609937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4960801359.16224</v>
+        <v>5251918069.886539</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1195704474237995</v>
+        <v>0.1452964474941968</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04676874878129088</v>
+        <v>0.03635534008550358</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2480400704.662176</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2823911246.882591</v>
+        <v>3440481853.601819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07072049631137245</v>
+        <v>0.1020844709745918</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04452758738099702</v>
+        <v>0.03659841894535699</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>152</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1411955656.66618</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5978650110.244211</v>
+        <v>4454560879.684954</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1017677561357464</v>
+        <v>0.1493267573884977</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03615540441665912</v>
+        <v>0.04695575421297447</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2989325170.841403</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2171282453.569217</v>
+        <v>2376794780.620139</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1233410712665116</v>
+        <v>0.1764981976965389</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03741797231559382</v>
+        <v>0.05236119991485957</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1085641253.886389</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2925596477.230126</v>
+        <v>3269587598.873124</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1009019309773637</v>
+        <v>0.06393052880378615</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04408586568064523</v>
+        <v>0.0335829563154604</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>135</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1462798210.743408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3972200183.143491</v>
+        <v>3984256552.139124</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1783647444809437</v>
+        <v>0.1466720898346927</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02549417661376386</v>
+        <v>0.0227259035681208</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>172</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1986100120.552357</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1605671203.445006</v>
+        <v>2226294296.333252</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07029245366311324</v>
+        <v>0.1044752737281298</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04401336907803591</v>
+        <v>0.05067195585715811</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>802835611.6580379</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3546734324.585727</v>
+        <v>2453729662.64235</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07420504789115734</v>
+        <v>0.08157927141580405</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04536740211794545</v>
+        <v>0.04503276956910636</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>179</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1773367108.229919</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3419569358.991893</v>
+        <v>3011708864.863014</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1793755130010713</v>
+        <v>0.1194530040326701</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02298182448254378</v>
+        <v>0.02572205305696602</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>161</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1709784708.665578</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2166210561.638084</v>
+        <v>2055774791.225795</v>
       </c>
       <c r="F75" t="n">
-        <v>0.103045673781844</v>
+        <v>0.1513558444465369</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03455289464275348</v>
+        <v>0.03580403702455724</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1083105229.507084</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3802093082.687926</v>
+        <v>4615742603.189155</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1100849244250618</v>
+        <v>0.07911862340431244</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0259339164642743</v>
+        <v>0.03113056735063395</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1901046517.805908</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1700272028.196704</v>
+        <v>1409977247.445545</v>
       </c>
       <c r="F77" t="n">
-        <v>0.11324772717434</v>
+        <v>0.157418614285553</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02615948925764539</v>
+        <v>0.02475321864484553</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>850136031.3565495</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4331162121.933448</v>
+        <v>4235948762.923423</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09589145136745617</v>
+        <v>0.1001112598098124</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05627472932386263</v>
+        <v>0.0454171265084481</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>164</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2165581003.02781</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1303962175.603892</v>
+        <v>1569107218.554673</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091696270811814</v>
+        <v>0.1475863762932514</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03523555122196005</v>
+        <v>0.03598875724408418</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>651981087.7580556</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4492955706.011896</v>
+        <v>5271049559.96649</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09209518865342095</v>
+        <v>0.09373985992969888</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03471623780644741</v>
+        <v>0.03845023328869045</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2246477876.999745</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3999166534.341502</v>
+        <v>4244371792.120701</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1306854632166836</v>
+        <v>0.1206437145524657</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02198507084205412</v>
+        <v>0.02143551738469926</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1999583230.371772</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4191599499.269235</v>
+        <v>4961683136.388878</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1988224096268592</v>
+        <v>0.1585423460409792</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02192616873267955</v>
+        <v>0.02577169225369984</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>165</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2095799778.701733</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2178536084.839055</v>
+        <v>1784501776.360309</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1076757823833882</v>
+        <v>0.157965134253467</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04230561147071569</v>
+        <v>0.04525028394613302</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1089268050.000399</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1839620561.067023</v>
+        <v>2325317014.009029</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1183332393127928</v>
+        <v>0.08604001340593546</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03713998997473299</v>
+        <v>0.03495086007672538</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>919810309.0529066</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3542804290.936436</v>
+        <v>2589402289.224224</v>
       </c>
       <c r="F85" t="n">
-        <v>0.162292993521385</v>
+        <v>0.1228392023814795</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0525180364388917</v>
+        <v>0.03843514143509472</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>177</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1771402265.553792</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1832841014.305636</v>
+        <v>1923978627.929771</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1377473562228912</v>
+        <v>0.1726066481100558</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02432735620218468</v>
+        <v>0.0177990057570507</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>916420511.5587853</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1245187795.820563</v>
+        <v>1160052936.113509</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1176646265708403</v>
+        <v>0.1482384782550068</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03173418954407078</v>
+        <v>0.04251852840950283</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>622593965.0892942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3705053569.481248</v>
+        <v>3615185547.300885</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1416684221037279</v>
+        <v>0.176140788991364</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03284886805110171</v>
+        <v>0.02867351129246313</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>188</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1852526884.903066</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2829712140.660826</v>
+        <v>2728430947.659392</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1151751881201399</v>
+        <v>0.09698178921382469</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03955027181025948</v>
+        <v>0.04122149108629613</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>160</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1414856120.93732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1379897294.932666</v>
+        <v>1315933537.608434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09760538422076949</v>
+        <v>0.09844233940596403</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05150721012637734</v>
+        <v>0.04140626131089653</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>689948604.234984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1500199223.262107</v>
+        <v>1743441413.241602</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1779549126726398</v>
+        <v>0.1405788165106012</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05065870068470051</v>
+        <v>0.04159654617530476</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>750099650.524748</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2681190512.745148</v>
+        <v>2715118880.28661</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08052061921601994</v>
+        <v>0.07168628754830456</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04200080806247119</v>
+        <v>0.03436984940495255</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1340595254.022042</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4755375029.999811</v>
+        <v>4416592743.017371</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09076113909318168</v>
+        <v>0.1078011247725985</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03985011972410617</v>
+        <v>0.05235962600592215</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2377687466.807549</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1839074673.607352</v>
+        <v>2341815967.156357</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1280645256144493</v>
+        <v>0.1304257395449496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0301306826652748</v>
+        <v>0.02848310656231752</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>919537314.2883945</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2060207089.941905</v>
+        <v>2001456382.366484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0918765031227349</v>
+        <v>0.09585754737820446</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04558882073096295</v>
+        <v>0.05024990722294735</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1030103613.058666</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2225217776.713156</v>
+        <v>2188349888.759961</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08531218224305562</v>
+        <v>0.120310924810549</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0352413007115089</v>
+        <v>0.04481888974187363</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1112608851.309773</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3977083093.352783</v>
+        <v>5181140287.057742</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1304962422254633</v>
+        <v>0.1452076550645549</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0231867454130161</v>
+        <v>0.02594059672058452</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1988541601.244307</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2799657825.989608</v>
+        <v>3922253034.967083</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1084496417543182</v>
+        <v>0.09011864671773606</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0265803048580967</v>
+        <v>0.02422767080063768</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1399828884.130602</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3183909825.362334</v>
+        <v>2863414522.289209</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09781389889900603</v>
+        <v>0.1262838361869942</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0332241528226099</v>
+        <v>0.02734940938086111</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>148</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1591954911.946754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3905321992.2436</v>
+        <v>4359106855.171409</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1357976448639369</v>
+        <v>0.1711769169106505</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02443199929108329</v>
+        <v>0.02694127509130787</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>144</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1952661059.26724</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2788249603.406759</v>
+        <v>3162349982.989102</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2168505928985981</v>
+        <v>0.1395125206041352</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03763895289383529</v>
+        <v>0.04655853414085822</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>193</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1394124862.802866</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_473.xlsx
+++ b/output/fit_clients/fit_round_473.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1771333193.349471</v>
+        <v>2216509650.966078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1118705870671038</v>
+        <v>0.07077866448626675</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0334074822982799</v>
+        <v>0.03275853457137411</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1647965791.639459</v>
+        <v>2636464284.095849</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1740655061034893</v>
+        <v>0.1171470501916617</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04512630367006746</v>
+        <v>0.04938052031285412</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4376024253.36798</v>
+        <v>3818920785.931014</v>
       </c>
       <c r="F4" t="n">
-        <v>0.161734550078354</v>
+        <v>0.1270165405543217</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02662656324186523</v>
+        <v>0.03314997766985007</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2804101502.383729</v>
+        <v>3573650695.956935</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09019975839733672</v>
+        <v>0.09055051870843661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04017623129677015</v>
+        <v>0.04100363329484192</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1864962308.608541</v>
+        <v>2687272456.297276</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1168428443157053</v>
+        <v>0.09235557286485351</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0483576155379574</v>
+        <v>0.04582220598255042</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2619762323.075186</v>
+        <v>2985393507.727261</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06525979803786636</v>
+        <v>0.07271439368737909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04751655690978109</v>
+        <v>0.0309464294490311</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2895999788.488845</v>
+        <v>2753247622.610286</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1852368830914788</v>
+        <v>0.1894654636815607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02999624320331798</v>
+        <v>0.02671969997988879</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1829483034.936379</v>
+        <v>1953435211.708762</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1939129161819266</v>
+        <v>0.1784448369706658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03516593673471086</v>
+        <v>0.03521848476716983</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3810007994.24462</v>
+        <v>4697622511.961853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2053013194422622</v>
+        <v>0.1770920444316682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0508158959357911</v>
+        <v>0.04053498615417787</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3912558617.658821</v>
+        <v>4029468210.06342</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1656003581148839</v>
+        <v>0.1687289050467393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03946284393659762</v>
+        <v>0.04065597775151234</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2928362899.279846</v>
+        <v>3058535735.895775</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1882091048810507</v>
+        <v>0.1714026853087256</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04174000578254674</v>
+        <v>0.03642019701469253</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3917653129.371952</v>
+        <v>4404719766.249816</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09672443041694011</v>
+        <v>0.06703868060393747</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02193407125103479</v>
+        <v>0.02242911622948187</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3493974361.415893</v>
+        <v>3216370566.000561</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1555342605854915</v>
+        <v>0.1363777552475541</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04403194538070147</v>
+        <v>0.03949571260307432</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1147748498.063817</v>
+        <v>1372327599.763766</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09240211895324367</v>
+        <v>0.09443296397624987</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03957733703192323</v>
+        <v>0.03050505507628872</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2832180204.327268</v>
+        <v>2846222215.239148</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1119715433563869</v>
+        <v>0.0819216763638017</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04387447241168827</v>
+        <v>0.03294164513260561</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,16 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4216702577.080514</v>
+        <v>5099567462.598741</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1291705470954023</v>
+        <v>0.1218032490165447</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03234985361650245</v>
+        <v>0.05163175846056602</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3263051280.300038</v>
+        <v>4007530095.469594</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1434441705733376</v>
+        <v>0.1700539719237262</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02482113030825843</v>
+        <v>0.03313736866692651</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1367982415.871713</v>
+        <v>1261339204.351212</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1271946338325568</v>
+        <v>0.1851359136978685</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02343171671742716</v>
+        <v>0.01663543063933648</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2760896830.536835</v>
+        <v>1978966002.687856</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1012724465231599</v>
+        <v>0.1554240631471926</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03166461581334806</v>
+        <v>0.02971623057424657</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1645085578.249284</v>
+        <v>1830034496.573009</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06436080755981015</v>
+        <v>0.0915756540801277</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04235376545568201</v>
+        <v>0.04476003943057463</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2812747845.970828</v>
+        <v>3043935869.140609</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1148741135589571</v>
+        <v>0.1164498496889032</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04664133898862722</v>
+        <v>0.04338613916154266</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1550519896.300287</v>
+        <v>1540007950.990346</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1203837571998626</v>
+        <v>0.14341478556905</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04581034160749087</v>
+        <v>0.03446501198169364</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3571097954.452104</v>
+        <v>3209247869.814937</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1258796310312587</v>
+        <v>0.09912406379896797</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02746919138208905</v>
+        <v>0.02581301195212126</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1211270829.364271</v>
+        <v>1449219405.464732</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1153502093444672</v>
+        <v>0.1002623241879409</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02368237471113052</v>
+        <v>0.02527387823548507</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>956277590.7006221</v>
+        <v>1201637316.399719</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09246598361740435</v>
+        <v>0.09846613566847852</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03598168769767952</v>
+        <v>0.02875041091568864</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4360476317.615512</v>
+        <v>2879970897.477174</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1472554506561581</v>
+        <v>0.1252262885440805</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01964763856681121</v>
+        <v>0.01749822237310937</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2952837665.147919</v>
+        <v>3321978777.121785</v>
       </c>
       <c r="F28" t="n">
-        <v>0.122814812030996</v>
+        <v>0.1171925208094481</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03708829444896273</v>
+        <v>0.04504349295868378</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4828124676.042512</v>
+        <v>3980324224.57391</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1208485249184218</v>
+        <v>0.1226534824270774</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0291890835600441</v>
+        <v>0.0343642189491018</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1741863560.262626</v>
+        <v>2229430711.884865</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1215219437585869</v>
+        <v>0.1264345833836693</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03716135151026284</v>
+        <v>0.03748393087399181</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1394338531.558573</v>
+        <v>1150067208.793292</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07313075981623446</v>
+        <v>0.0998616139589206</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04304149800577493</v>
+        <v>0.04904543110298725</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1625427361.352569</v>
+        <v>1428327907.177455</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08178102863392893</v>
+        <v>0.1043879740550583</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03679801201580844</v>
+        <v>0.03094949728318907</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2994456779.101227</v>
+        <v>2113795051.016845</v>
       </c>
       <c r="F33" t="n">
-        <v>0.13198669532585</v>
+        <v>0.129920277029519</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04895415408686247</v>
+        <v>0.05971214324225598</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1566682241.653803</v>
+        <v>1145790381.690922</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08498801659864551</v>
+        <v>0.1125320757295209</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02677426208793144</v>
+        <v>0.01895689541146727</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>937592228.6137769</v>
+        <v>1178486129.283349</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0785903661273233</v>
+        <v>0.07359198368768821</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03944656446250103</v>
+        <v>0.03978716114719313</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2313506317.415026</v>
+        <v>2600568339.811375</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1783830903396761</v>
+        <v>0.1369814347506062</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01823855134783736</v>
+        <v>0.01987191320181406</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2590280287.603234</v>
+        <v>2479257592.797846</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1053931663508876</v>
+        <v>0.075871752077061</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04161110165543416</v>
+        <v>0.03325306798979449</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2122237680.987607</v>
+        <v>2165736552.761573</v>
       </c>
       <c r="F38" t="n">
-        <v>0.12170409575088</v>
+        <v>0.1170622393008743</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03642706138896821</v>
+        <v>0.03449564735720385</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1913185812.793983</v>
+        <v>1533805693.161899</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1457410928384737</v>
+        <v>0.1805133841524617</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02226930444383345</v>
+        <v>0.02431458466171771</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1579335163.945479</v>
+        <v>1333124364.380287</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1334802430540129</v>
+        <v>0.135214817644437</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04120587961292219</v>
+        <v>0.05434845841481317</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1779797427.682161</v>
+        <v>2464373584.098859</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1539061885301193</v>
+        <v>0.1368233931292556</v>
       </c>
       <c r="G41" t="n">
-        <v>0.031723765008574</v>
+        <v>0.04496740096908918</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3189579360.822005</v>
+        <v>2951868651.823303</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1028331067497051</v>
+        <v>0.1208519042258011</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04143815249555521</v>
+        <v>0.03467335979715965</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2840878215.223927</v>
+        <v>2672310558.371691</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2046210109856681</v>
+        <v>0.1664727107240867</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02203048862965723</v>
+        <v>0.02238174551439613</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2204126728.150368</v>
+        <v>1901608353.347913</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06982387119994433</v>
+        <v>0.07144616210345185</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03127865576307948</v>
+        <v>0.03277717757790728</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2204410298.080024</v>
+        <v>2263306956.548316</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1268260345345485</v>
+        <v>0.1632552501337934</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05003365935972455</v>
+        <v>0.04500521425616064</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3905062650.018952</v>
+        <v>3592695626.968844</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1496418061029859</v>
+        <v>0.1434901327738636</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04977333448648336</v>
+        <v>0.04025174097449911</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4706683556.318195</v>
+        <v>3651260442.926326</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1791712201078969</v>
+        <v>0.1734558259525618</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05377458974803206</v>
+        <v>0.04298416832273918</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3916218835.323816</v>
+        <v>3381936847.582545</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09064022959526785</v>
+        <v>0.08418277367517103</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02665728771774476</v>
+        <v>0.03261310283465412</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1413250591.268588</v>
+        <v>1221014469.000216</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1882540684337693</v>
+        <v>0.1211202436679231</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03430485163415561</v>
+        <v>0.02952225234831036</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3989358919.512688</v>
+        <v>3541031542.14123</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1122055895507168</v>
+        <v>0.1544861640004743</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04929134711429175</v>
+        <v>0.03939989618077057</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1438552998.781309</v>
+        <v>1330656246.133044</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1725140379932576</v>
+        <v>0.1230973324447656</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04596851451803251</v>
+        <v>0.0477929297459003</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3911194485.673996</v>
+        <v>4200524016.26602</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1117618948750845</v>
+        <v>0.1292049197643874</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06115913519907957</v>
+        <v>0.05363596116838244</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2435596718.86445</v>
+        <v>2903792789.375826</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2036298395131052</v>
+        <v>0.1234564993234176</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03097511114395185</v>
+        <v>0.024596066634929</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4289294217.569504</v>
+        <v>3506957352.901547</v>
       </c>
       <c r="F54" t="n">
-        <v>0.147518018373266</v>
+        <v>0.1649181974581339</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03459074964899835</v>
+        <v>0.03572996976058421</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3460863567.79086</v>
+        <v>3701509291.824988</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1770068657238824</v>
+        <v>0.1794939255478362</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02761540557506847</v>
+        <v>0.02553222332426207</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1363030983.142065</v>
+        <v>1825687996.086769</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1513660354501336</v>
+        <v>0.1561349263289882</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05113969361973582</v>
+        <v>0.03513904663029494</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4369709070.362117</v>
+        <v>4061911890.742197</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1197810863070598</v>
+        <v>0.1453991421414706</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02177681070056685</v>
+        <v>0.02195351793428859</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1823507740.398197</v>
+        <v>1733514466.039911</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1977177846433098</v>
+        <v>0.1456272805774018</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03024912411928287</v>
+        <v>0.0320507457022189</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5029054565.736236</v>
+        <v>4178912805.30358</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1145331666877875</v>
+        <v>0.1067490443008874</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03432410317043313</v>
+        <v>0.04229007490181084</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2622205363.57735</v>
+        <v>2289471177.208612</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1982961272838393</v>
+        <v>0.1892946593981956</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02336325432594953</v>
+        <v>0.02833140828619675</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3167469497.049359</v>
+        <v>2318283803.853495</v>
       </c>
       <c r="F61" t="n">
-        <v>0.145499947958898</v>
+        <v>0.1462817418541993</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02897262711283657</v>
+        <v>0.02599223757336956</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2019541200.255461</v>
+        <v>2020375005.088903</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1272449864717775</v>
+        <v>0.1405579494675387</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04752679384652123</v>
+        <v>0.03078261782747811</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4208335939.331205</v>
+        <v>4778623544.739216</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09288239939627807</v>
+        <v>0.09093185564731715</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04714068468946291</v>
+        <v>0.03246392873432876</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5246826015.602164</v>
+        <v>4189101293.092728</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1159385364444786</v>
+        <v>0.1771559431063098</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02245364756778971</v>
+        <v>0.03203892942623648</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4773655937.850283</v>
+        <v>3624213965.293665</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1565741407225597</v>
+        <v>0.1203106261341151</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02525921529892644</v>
+        <v>0.03027072149434751</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5251918069.886539</v>
+        <v>4804058721.071517</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1452964474941968</v>
+        <v>0.1472502050838655</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03635534008550358</v>
+        <v>0.03407361751900223</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3440481853.601819</v>
+        <v>3057842726.601621</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1020844709745918</v>
+        <v>0.07054179962127347</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03659841894535699</v>
+        <v>0.04807467219381553</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4454560879.684954</v>
+        <v>5793898215.920868</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1493267573884977</v>
+        <v>0.1187551524216173</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04695575421297447</v>
+        <v>0.05155286290130964</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2376794780.620139</v>
+        <v>2241668032.078245</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1764981976965389</v>
+        <v>0.1570472614693626</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05236119991485957</v>
+        <v>0.0512436750180536</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3269587598.873124</v>
+        <v>3180060216.112285</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06393052880378615</v>
+        <v>0.09016109786479914</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0335829563154604</v>
+        <v>0.03201847468234506</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3984256552.139124</v>
+        <v>4861512431.409116</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1466720898346927</v>
+        <v>0.167408305775915</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0227259035681208</v>
+        <v>0.03220468349547703</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2226294296.333252</v>
+        <v>1889361816.342923</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1044752737281298</v>
+        <v>0.07984192411425778</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05067195585715811</v>
+        <v>0.03223528504907038</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2453729662.64235</v>
+        <v>2900100840.824514</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08157927141580405</v>
+        <v>0.0886752089369051</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04503276956910636</v>
+        <v>0.04117073618286704</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3011708864.863014</v>
+        <v>2760904402.421073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1194530040326701</v>
+        <v>0.1376961829804257</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02572205305696602</v>
+        <v>0.03553250131734877</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2055774791.225795</v>
+        <v>1597281134.367836</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1513558444465369</v>
+        <v>0.1479967947049631</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03580403702455724</v>
+        <v>0.03373442686063451</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4615742603.189155</v>
+        <v>4512355418.674093</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07911862340431244</v>
+        <v>0.08964722838071223</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03113056735063395</v>
+        <v>0.03015410573557059</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1409977247.445545</v>
+        <v>1800124640.045775</v>
       </c>
       <c r="F77" t="n">
-        <v>0.157418614285553</v>
+        <v>0.1596535224592175</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02475321864484553</v>
+        <v>0.02523163175444259</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4235948762.923423</v>
+        <v>3595871439.706818</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1001112598098124</v>
+        <v>0.09540729351448687</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0454171265084481</v>
+        <v>0.03976221514284185</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1569107218.554673</v>
+        <v>1793714213.041797</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1475863762932514</v>
+        <v>0.1709962112153352</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03598875724408418</v>
+        <v>0.03969391474607827</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5271049559.96649</v>
+        <v>5081166669.719007</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09373985992969888</v>
+        <v>0.08195359779312077</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03845023328869045</v>
+        <v>0.03368346366910689</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4244371792.120701</v>
+        <v>4380263093.592363</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1206437145524657</v>
+        <v>0.1040865918000124</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02143551738469926</v>
+        <v>0.02527413934986793</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4961683136.388878</v>
+        <v>4468648918.779582</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1585423460409792</v>
+        <v>0.1776263812164891</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02577169225369984</v>
+        <v>0.01821632517851637</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1784501776.360309</v>
+        <v>1858757667.213067</v>
       </c>
       <c r="F83" t="n">
-        <v>0.157965134253467</v>
+        <v>0.1124438164413452</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04525028394613302</v>
+        <v>0.0392479297011822</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2325317014.009029</v>
+        <v>2140678764.813197</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08604001340593546</v>
+        <v>0.1034420288533916</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03495086007672538</v>
+        <v>0.03649939043334189</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2589402289.224224</v>
+        <v>2925573675.603614</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1228392023814795</v>
+        <v>0.1628132585306675</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03843514143509472</v>
+        <v>0.0464050476964363</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1923978627.929771</v>
+        <v>2572457643.924595</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1726066481100558</v>
+        <v>0.1308837978225613</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0177990057570507</v>
+        <v>0.0239702584829161</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1160052936.113509</v>
+        <v>1309574753.940401</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1482384782550068</v>
+        <v>0.1475521294703334</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04251852840950283</v>
+        <v>0.03308417839128908</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3615185547.300885</v>
+        <v>3694220301.016915</v>
       </c>
       <c r="F88" t="n">
-        <v>0.176140788991364</v>
+        <v>0.1684417877793605</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02867351129246313</v>
+        <v>0.03193433500956215</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2728430947.659392</v>
+        <v>2527146739.406487</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09698178921382469</v>
+        <v>0.1418794066765248</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04122149108629613</v>
+        <v>0.03670257906877993</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1315933537.608434</v>
+        <v>1848171451.166102</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09844233940596403</v>
+        <v>0.1239921299257977</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04140626131089653</v>
+        <v>0.05182732031879596</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1743441413.241602</v>
+        <v>2043121285.540578</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1405788165106012</v>
+        <v>0.1487411851354218</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04159654617530476</v>
+        <v>0.04418376672551769</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2715118880.28661</v>
+        <v>1990981256.676661</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07168628754830456</v>
+        <v>0.0794580746757588</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03436984940495255</v>
+        <v>0.04053138148245348</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4416592743.017371</v>
+        <v>4765827194.164202</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1078011247725985</v>
+        <v>0.1090064315817139</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05235962600592215</v>
+        <v>0.04039482628588841</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2341815967.156357</v>
+        <v>1535808805.575859</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1304257395449496</v>
+        <v>0.1286137507391125</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02848310656231752</v>
+        <v>0.0414155725790871</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2001456382.366484</v>
+        <v>2020872673.903502</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09585754737820446</v>
+        <v>0.0874410588564971</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05024990722294735</v>
+        <v>0.05195374695160646</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2188349888.759961</v>
+        <v>1823656582.326748</v>
       </c>
       <c r="F96" t="n">
-        <v>0.120310924810549</v>
+        <v>0.08709380455959194</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04481888974187363</v>
+        <v>0.02878261394909963</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5181140287.057742</v>
+        <v>4212763926.707515</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1452076550645549</v>
+        <v>0.1333247802447664</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02594059672058452</v>
+        <v>0.02166689451365114</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3922253034.967083</v>
+        <v>2589740165.80835</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09011864671773606</v>
+        <v>0.1065506972086649</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02422767080063768</v>
+        <v>0.02992038305209867</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2863414522.289209</v>
+        <v>2779485846.929574</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1262838361869942</v>
+        <v>0.1261117877304361</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02734940938086111</v>
+        <v>0.03023713082240731</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4359106855.171409</v>
+        <v>3763425687.335586</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1711769169106505</v>
+        <v>0.1562383332689733</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02694127509130787</v>
+        <v>0.02414364014663984</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3162349982.989102</v>
+        <v>2453462754.24123</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1395125206041352</v>
+        <v>0.2065674427856284</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04655853414085822</v>
+        <v>0.05236451781541347</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_473.xlsx
+++ b/output/fit_clients/fit_round_473.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2216509650.966078</v>
+        <v>1627349679.518614</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07077866448626675</v>
+        <v>0.09135303660663575</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03275853457137411</v>
+        <v>0.03984021163998552</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2636464284.095849</v>
+        <v>2346739412.859487</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1171470501916617</v>
+        <v>0.1847588057818725</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04938052031285412</v>
+        <v>0.03099638282392655</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3818920785.931014</v>
+        <v>4826678755.289522</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1270165405543217</v>
+        <v>0.1132573770430251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03314997766985007</v>
+        <v>0.03509437709318037</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>239</v>
+      </c>
+      <c r="J4" t="n">
+        <v>472</v>
+      </c>
+      <c r="K4" t="n">
+        <v>29.65684530865911</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3573650695.956935</v>
+        <v>3148693485.03313</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09055051870843661</v>
+        <v>0.1103957011328875</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04100363329484192</v>
+        <v>0.0424163200077677</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>199</v>
+      </c>
+      <c r="J5" t="n">
+        <v>471</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2687272456.297276</v>
+        <v>2620622755.758603</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09235557286485351</v>
+        <v>0.1108819878835024</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04582220598255042</v>
+        <v>0.03420548094285927</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2985393507.727261</v>
+        <v>2468292533.658315</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07271439368737909</v>
+        <v>0.0994274444617113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0309464294490311</v>
+        <v>0.04381199984510436</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2753247622.610286</v>
+        <v>2802128910.064688</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1894654636815607</v>
+        <v>0.134138836379775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02671969997988879</v>
+        <v>0.02277909672054351</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1953435211.708762</v>
+        <v>2196523372.909936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1784448369706658</v>
+        <v>0.1821164831029639</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03521848476716983</v>
+        <v>0.03153783477210713</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4697622511.961853</v>
+        <v>4226634501.718897</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1770920444316682</v>
+        <v>0.2159908760153642</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04053498615417787</v>
+        <v>0.03533614981014215</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>362</v>
+      </c>
+      <c r="J10" t="n">
+        <v>472</v>
+      </c>
+      <c r="K10" t="n">
+        <v>29.78193522122974</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4029468210.06342</v>
+        <v>4218703419.037914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1687289050467393</v>
+        <v>0.1282649658354232</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04065597775151234</v>
+        <v>0.03774441261431202</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>195</v>
+      </c>
+      <c r="J11" t="n">
+        <v>473</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3058535735.895775</v>
+        <v>2874485352.81341</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1714026853087256</v>
+        <v>0.1835271338510387</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03642019701469253</v>
+        <v>0.03945411368062178</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4404719766.249816</v>
+        <v>4661121802.582911</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06703868060393747</v>
+        <v>0.08362357443276573</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02242911622948187</v>
+        <v>0.02885592456901146</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>246</v>
+      </c>
+      <c r="J13" t="n">
+        <v>472</v>
+      </c>
+      <c r="K13" t="n">
+        <v>29.68794823237074</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3216370566.000561</v>
+        <v>3267167642.014121</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1363777552475541</v>
+        <v>0.1574900180312216</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03949571260307432</v>
+        <v>0.02857777536315484</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>470</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1372327599.763766</v>
+        <v>1441713196.018418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09443296397624987</v>
+        <v>0.09094704465682478</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03050505507628872</v>
+        <v>0.04303075637792791</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2846222215.239148</v>
+        <v>2748323359.543244</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0819216763638017</v>
+        <v>0.08111346410026812</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03294164513260561</v>
+        <v>0.03892711658288665</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5099567462.598741</v>
+        <v>3842721604.613435</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1218032490165447</v>
+        <v>0.1053940800176614</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05163175846056602</v>
+        <v>0.03846760464255661</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>231</v>
+      </c>
+      <c r="J17" t="n">
+        <v>473</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4007530095.469594</v>
+        <v>3583913636.297147</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1700539719237262</v>
+        <v>0.1333972762225797</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03313736866692651</v>
+        <v>0.026915240618824</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1261339204.351212</v>
+        <v>1048213221.956418</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1851359136978685</v>
+        <v>0.1602067177891699</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01663543063933648</v>
+        <v>0.01755286002929745</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1978966002.687856</v>
+        <v>1775181111.296103</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1554240631471926</v>
+        <v>0.1376105916605977</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02971623057424657</v>
+        <v>0.02937104256729785</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1830034496.573009</v>
+        <v>2029214322.950653</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0915756540801277</v>
+        <v>0.07447807413163303</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04476003943057463</v>
+        <v>0.0370513557871866</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3043935869.140609</v>
+        <v>2938907748.33994</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1164498496889032</v>
+        <v>0.123477204216186</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04338613916154266</v>
+        <v>0.04898958950411191</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>138</v>
+      </c>
+      <c r="J22" t="n">
+        <v>472</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27.21945682965971</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1540007950.990346</v>
+        <v>1445041067.402189</v>
       </c>
       <c r="F23" t="n">
-        <v>0.14341478556905</v>
+        <v>0.11723856638096</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03446501198169364</v>
+        <v>0.04793374876350659</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3209247869.814937</v>
+        <v>3467849382.809452</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09912406379896797</v>
+        <v>0.09726600750428124</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02581301195212126</v>
+        <v>0.02291550217052274</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="n">
+        <v>32.7746760804689</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1449219405.464732</v>
+        <v>1211559738.607837</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1002623241879409</v>
+        <v>0.094002022817485</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02527387823548507</v>
+        <v>0.022429598011521</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1201637316.399719</v>
+        <v>1392041558.073596</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09846613566847852</v>
+        <v>0.1108838590669158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02875041091568864</v>
+        <v>0.02531409193254107</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2879970897.477174</v>
+        <v>4451952365.046193</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1252262885440805</v>
+        <v>0.1096281859740053</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01749822237310937</v>
+        <v>0.02442401018817517</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>209</v>
+      </c>
+      <c r="J27" t="n">
+        <v>472</v>
+      </c>
+      <c r="K27" t="n">
+        <v>32.3338093715203</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3321978777.121785</v>
+        <v>2388732868.750271</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1171925208094481</v>
+        <v>0.1081524560308354</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04504349295868378</v>
+        <v>0.04055238903368616</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1452,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3980324224.57391</v>
+        <v>4627660609.871423</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1226534824270774</v>
+        <v>0.1199798453205521</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0343642189491018</v>
+        <v>0.0367190477148267</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>377</v>
+      </c>
+      <c r="J29" t="n">
+        <v>473</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2229430711.884865</v>
+        <v>1836997682.330174</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1264345833836693</v>
+        <v>0.127716780422489</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03748393087399181</v>
+        <v>0.03971060167244875</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1150067208.793292</v>
+        <v>1206692659.214601</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0998616139589206</v>
+        <v>0.08003497838697549</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04904543110298725</v>
+        <v>0.03921608689166004</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1428327907.177455</v>
+        <v>1515733353.278946</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1043879740550583</v>
+        <v>0.07761648107050137</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03094949728318907</v>
+        <v>0.03190657211068578</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2113795051.016845</v>
+        <v>3015050208.392583</v>
       </c>
       <c r="F33" t="n">
-        <v>0.129920277029519</v>
+        <v>0.1621999452717422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05971214324225598</v>
+        <v>0.06018292787023565</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1145790381.690922</v>
+        <v>1435270371.163576</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1125320757295209</v>
+        <v>0.08577551651857188</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01895689541146727</v>
+        <v>0.02448430910575951</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1178486129.283349</v>
+        <v>1042572511.20112</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07359198368768821</v>
+        <v>0.09431643085187004</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03978716114719313</v>
+        <v>0.0448943656311271</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2600568339.811375</v>
+        <v>2824154437.532885</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1369814347506062</v>
+        <v>0.1199079803691154</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01987191320181406</v>
+        <v>0.02123912600692034</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2479257592.797846</v>
+        <v>2735217237.388141</v>
       </c>
       <c r="F37" t="n">
-        <v>0.075871752077061</v>
+        <v>0.1036397376194527</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03325306798979449</v>
+        <v>0.0349343430883198</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2165736552.761573</v>
+        <v>1651855722.718006</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1170622393008743</v>
+        <v>0.09620965591461822</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03449564735720385</v>
+        <v>0.03503763320602288</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1533805693.161899</v>
+        <v>1489126142.701003</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1805133841524617</v>
+        <v>0.1923879139911851</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02431458466171771</v>
+        <v>0.0249715673539512</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1333124364.380287</v>
+        <v>1626419266.800451</v>
       </c>
       <c r="F40" t="n">
-        <v>0.135214817644437</v>
+        <v>0.1111868968615924</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05434845841481317</v>
+        <v>0.0505743325282856</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2464373584.098859</v>
+        <v>2223521063.021541</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1368233931292556</v>
+        <v>0.1146287725096397</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04496740096908918</v>
+        <v>0.04182447411404813</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2951868651.823303</v>
+        <v>4245898715.194592</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1208519042258011</v>
+        <v>0.09068998523200557</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03467335979715965</v>
+        <v>0.04483965303633684</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>206</v>
+      </c>
+      <c r="J42" t="n">
+        <v>473</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2672310558.371691</v>
+        <v>2097994737.998162</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1664727107240867</v>
+        <v>0.185893264540071</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02238174551439613</v>
+        <v>0.01621132231771647</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1901608353.347913</v>
+        <v>2027660299.640351</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07144616210345185</v>
+        <v>0.08674713817149583</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03277717757790728</v>
+        <v>0.0317719803272927</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2263306956.548316</v>
+        <v>2487084384.050048</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1632552501337934</v>
+        <v>0.1274584273545684</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04500521425616064</v>
+        <v>0.03510826307027737</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3592695626.968844</v>
+        <v>4936803113.267868</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1434901327738636</v>
+        <v>0.1222682966041367</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04025174097449911</v>
+        <v>0.05508590810834779</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>279</v>
+      </c>
+      <c r="J46" t="n">
+        <v>473</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3651260442.926326</v>
+        <v>4343327002.30777</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1734558259525618</v>
+        <v>0.1746459674991139</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04298416832273918</v>
+        <v>0.04611089204984099</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>213</v>
+      </c>
+      <c r="J47" t="n">
+        <v>473</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2123,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3381936847.582545</v>
+        <v>3825645466.329798</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08418277367517103</v>
+        <v>0.1054657317360226</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03261310283465412</v>
+        <v>0.03248715074599234</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>236</v>
+      </c>
+      <c r="J48" t="n">
+        <v>473</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1221014469.000216</v>
+        <v>1446476016.642524</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1211202436679231</v>
+        <v>0.1456871259641959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02952225234831036</v>
+        <v>0.03369277084089174</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3541031542.14123</v>
+        <v>3010260982.224616</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1544861640004743</v>
+        <v>0.1305564688735561</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03939989618077057</v>
+        <v>0.03419101965615879</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>169</v>
+      </c>
+      <c r="J50" t="n">
+        <v>472</v>
+      </c>
+      <c r="K50" t="n">
+        <v>25.2418898053662</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1330656246.133044</v>
+        <v>997817223.8181343</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1230973324447656</v>
+        <v>0.1800502318019114</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0477929297459003</v>
+        <v>0.04091970310440601</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4200524016.26602</v>
+        <v>3318636567.138319</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1292049197643874</v>
+        <v>0.137084957660624</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05363596116838244</v>
+        <v>0.04262532901234269</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>266</v>
+      </c>
+      <c r="J52" t="n">
+        <v>470</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2903792789.375826</v>
+        <v>2478162751.920219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1234564993234176</v>
+        <v>0.1747100365426319</v>
       </c>
       <c r="G53" t="n">
-        <v>0.024596066634929</v>
+        <v>0.03008327733044711</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3506957352.901547</v>
+        <v>3441851654.259432</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1649181974581339</v>
+        <v>0.1281960014352036</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03572996976058421</v>
+        <v>0.03930643236741389</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>250</v>
+      </c>
+      <c r="J54" t="n">
+        <v>471</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3701509291.824988</v>
+        <v>3037444728.011923</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794939255478362</v>
+        <v>0.1851859325054399</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02553222332426207</v>
+        <v>0.02790024279888735</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>234</v>
+      </c>
+      <c r="J55" t="n">
+        <v>472</v>
+      </c>
+      <c r="K55" t="n">
+        <v>21.603975559403</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1825687996.086769</v>
+        <v>1139969989.623835</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1561349263289882</v>
+        <v>0.138456024185129</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03513904663029494</v>
+        <v>0.04013627525118615</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2442,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4061911890.742197</v>
+        <v>4414275075.930653</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1453991421414706</v>
+        <v>0.1284963993379623</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02195351793428859</v>
+        <v>0.0234505852754701</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>203</v>
+      </c>
+      <c r="J57" t="n">
+        <v>473</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1733514466.039911</v>
+        <v>1598902648.077194</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1456272805774018</v>
+        <v>0.1480828600012585</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0320507457022189</v>
+        <v>0.0309799743321777</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4178912805.30358</v>
+        <v>4030220809.742905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1067490443008874</v>
+        <v>0.10301040447515</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04229007490181084</v>
+        <v>0.03760630934509498</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>232</v>
+      </c>
+      <c r="J59" t="n">
+        <v>472</v>
+      </c>
+      <c r="K59" t="n">
+        <v>30.49547598773677</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2549,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2289471177.208612</v>
+        <v>3735033995.525368</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1892946593981956</v>
+        <v>0.1596293589656293</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02833140828619675</v>
+        <v>0.02595842856336171</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>92</v>
+      </c>
+      <c r="J60" t="n">
+        <v>473</v>
+      </c>
+      <c r="K60" t="n">
+        <v>55.57503302745817</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2318283803.853495</v>
+        <v>2859504073.60244</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1462817418541993</v>
+        <v>0.1153508748267362</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02599223757336956</v>
+        <v>0.02764132676167382</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2020375005.088903</v>
+        <v>1455828743.474165</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1405579494675387</v>
+        <v>0.1576648211181218</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03078261782747811</v>
+        <v>0.03226445615172197</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4778623544.739216</v>
+        <v>3491239842.042233</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09093185564731715</v>
+        <v>0.07681137656743971</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03246392873432876</v>
+        <v>0.03986502755588836</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>236</v>
+      </c>
+      <c r="J63" t="n">
+        <v>470</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2685,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4189101293.092728</v>
+        <v>4880517295.240242</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1771559431063098</v>
+        <v>0.1718175062177353</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03203892942623648</v>
+        <v>0.03164618274326082</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>236</v>
+      </c>
+      <c r="J64" t="n">
+        <v>473</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3624213965.293665</v>
+        <v>4344461060.637097</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1203106261341151</v>
+        <v>0.1462027400184501</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03027072149434751</v>
+        <v>0.02255961735343388</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>334</v>
+      </c>
+      <c r="J65" t="n">
+        <v>472</v>
+      </c>
+      <c r="K65" t="n">
+        <v>27.9871641583571</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4804058721.071517</v>
+        <v>4814487963.734197</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1472502050838655</v>
+        <v>0.1042159031237049</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03407361751900223</v>
+        <v>0.04731744726095718</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>233</v>
+      </c>
+      <c r="J66" t="n">
+        <v>473</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3057842726.601621</v>
+        <v>3382897003.780977</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07054179962127347</v>
+        <v>0.09184297081013408</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04807467219381553</v>
+        <v>0.03614429749644123</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5793898215.920868</v>
+        <v>4744993278.612777</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1187551524216173</v>
+        <v>0.1029351655416257</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05155286290130964</v>
+        <v>0.03913823439906225</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>257</v>
+      </c>
+      <c r="J68" t="n">
+        <v>473</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2241668032.078245</v>
+        <v>1840977200.010383</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1570472614693626</v>
+        <v>0.1572073492253364</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0512436750180536</v>
+        <v>0.04557796899426517</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3180060216.112285</v>
+        <v>2559659696.027866</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09016109786479914</v>
+        <v>0.07017702388164249</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03201847468234506</v>
+        <v>0.04940846955763716</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2932,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4861512431.409116</v>
+        <v>4476510405.302575</v>
       </c>
       <c r="F71" t="n">
-        <v>0.167408305775915</v>
+        <v>0.1571864069694515</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03220468349547703</v>
+        <v>0.02248358145463245</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>320</v>
+      </c>
+      <c r="J71" t="n">
+        <v>473</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2967,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1889361816.342923</v>
+        <v>1836244338.781918</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07984192411425778</v>
+        <v>0.07059232363983305</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03223528504907038</v>
+        <v>0.04034627215642905</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3002,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2900100840.824514</v>
+        <v>2466864963.48699</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0886752089369051</v>
+        <v>0.1020393529942391</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04117073618286704</v>
+        <v>0.04800364359385621</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>43</v>
+      </c>
+      <c r="J73" t="n">
+        <v>472</v>
+      </c>
+      <c r="K73" t="n">
+        <v>28.82880008712049</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2760904402.421073</v>
+        <v>3679168956.165792</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1376961829804257</v>
+        <v>0.1345255052188964</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03553250131734877</v>
+        <v>0.02783895143782649</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>140</v>
+      </c>
+      <c r="J74" t="n">
+        <v>473</v>
+      </c>
+      <c r="K74" t="n">
+        <v>39.162280943864</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3082,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1597281134.367836</v>
+        <v>2093583795.358871</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1479967947049631</v>
+        <v>0.1507459072763574</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03373442686063451</v>
+        <v>0.03108730551658333</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3117,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4512355418.674093</v>
+        <v>4099766577.145132</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08964722838071223</v>
+        <v>0.1156554942443617</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03015410573557059</v>
+        <v>0.02859990726636982</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>226</v>
+      </c>
+      <c r="J76" t="n">
+        <v>472</v>
+      </c>
+      <c r="K76" t="n">
+        <v>31.31691940256137</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1800124640.045775</v>
+        <v>2262215489.42441</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1596535224592175</v>
+        <v>0.1167143322282632</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02523163175444259</v>
+        <v>0.02528571654665767</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3595871439.706818</v>
+        <v>3012968677.488499</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09540729351448687</v>
+        <v>0.1033519757621375</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03976221514284185</v>
+        <v>0.05689282160548952</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>235</v>
+      </c>
+      <c r="J78" t="n">
+        <v>472</v>
+      </c>
+      <c r="K78" t="n">
+        <v>21.2269102420984</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1793714213.041797</v>
+        <v>1274678035.548338</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1709962112153352</v>
+        <v>0.1755683032657699</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03969391474607827</v>
+        <v>0.03786534293591254</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3261,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5081166669.719007</v>
+        <v>4698557112.448659</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08195359779312077</v>
+        <v>0.07854077870967734</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03368346366910689</v>
+        <v>0.02842702998691448</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>231</v>
+      </c>
+      <c r="J80" t="n">
+        <v>472</v>
+      </c>
+      <c r="K80" t="n">
+        <v>28.36005959468744</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4380263093.592363</v>
+        <v>3912922864.665422</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1040865918000124</v>
+        <v>0.11800852880923</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02527413934986793</v>
+        <v>0.02253681422298345</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>220</v>
+      </c>
+      <c r="J81" t="n">
+        <v>473</v>
+      </c>
+      <c r="K81" t="n">
+        <v>32.84950127749899</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4468648918.779582</v>
+        <v>4072500341.876285</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1776263812164891</v>
+        <v>0.1590504016114899</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01821632517851637</v>
+        <v>0.02633188075984902</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>312</v>
+      </c>
+      <c r="J82" t="n">
+        <v>472</v>
+      </c>
+      <c r="K82" t="n">
+        <v>32.81897600898083</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1858757667.213067</v>
+        <v>2486938479.985278</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1124438164413452</v>
+        <v>0.1273901908590027</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0392479297011822</v>
+        <v>0.02801918352765791</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2140678764.813197</v>
+        <v>1935967277.073522</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1034420288533916</v>
+        <v>0.09753812838663978</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03649939043334189</v>
+        <v>0.03770162027674579</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2925573675.603614</v>
+        <v>3658985840.389064</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1628132585306675</v>
+        <v>0.12576996317418</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0464050476964363</v>
+        <v>0.04376463356479179</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>473</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2572457643.924595</v>
+        <v>2202597205.776277</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1308837978225613</v>
+        <v>0.1365003851281137</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0239702584829161</v>
+        <v>0.02318094199058924</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1309574753.940401</v>
+        <v>1128359896.170227</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1475521294703334</v>
+        <v>0.1823496961874074</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03308417839128908</v>
+        <v>0.02722201522156996</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3694220301.016915</v>
+        <v>3386301599.337826</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1684417877793605</v>
+        <v>0.16992804869794</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03193433500956215</v>
+        <v>0.03915089886537526</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>64</v>
+      </c>
+      <c r="J88" t="n">
+        <v>473</v>
+      </c>
+      <c r="K88" t="n">
+        <v>49.11492337998398</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2527146739.406487</v>
+        <v>2754355230.58147</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1418794066765248</v>
+        <v>0.108746117755785</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03670257906877993</v>
+        <v>0.02770077895512305</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1848171451.166102</v>
+        <v>1826854445.60192</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1239921299257977</v>
+        <v>0.1330872927273496</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05182732031879596</v>
+        <v>0.04592815436578129</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2043121285.540578</v>
+        <v>1517816384.759716</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1487411851354218</v>
+        <v>0.1668371783727338</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04418376672551769</v>
+        <v>0.04087872020595298</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1990981256.676661</v>
+        <v>2088871168.10483</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0794580746757588</v>
+        <v>0.07927377317469697</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04053138148245348</v>
+        <v>0.03635212093570173</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4765827194.164202</v>
+        <v>3288893962.035522</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1090064315817139</v>
+        <v>0.1219685094012884</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04039482628588841</v>
+        <v>0.04104901119084942</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>226</v>
+      </c>
+      <c r="J93" t="n">
+        <v>470</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1535808805.575859</v>
+        <v>1907053931.381938</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1286137507391125</v>
+        <v>0.1217327924024523</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0414155725790871</v>
+        <v>0.03030198697085049</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2020872673.903502</v>
+        <v>3279028936.76593</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0874410588564971</v>
+        <v>0.1197782092951195</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05195374695160646</v>
+        <v>0.03613749237534999</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1823656582.326748</v>
+        <v>2270338107.506365</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08709380455959194</v>
+        <v>0.1086309066173826</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02878261394909963</v>
+        <v>0.03343504846630654</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4212763926.707515</v>
+        <v>3965069503.415186</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1333247802447664</v>
+        <v>0.1714797380875034</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02166689451365114</v>
+        <v>0.02618759447979388</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>246</v>
+      </c>
+      <c r="J97" t="n">
+        <v>473</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2589740165.80835</v>
+        <v>2967662662.698555</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1065506972086649</v>
+        <v>0.1017817412966679</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02992038305209867</v>
+        <v>0.02445850071976733</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>118</v>
+      </c>
+      <c r="J98" t="n">
+        <v>473</v>
+      </c>
+      <c r="K98" t="n">
+        <v>33.38855862218687</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2779485846.929574</v>
+        <v>2093111962.728358</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1261117877304361</v>
+        <v>0.09642520362031154</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03023713082240731</v>
+        <v>0.02805642834477719</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3763425687.335586</v>
+        <v>4337678047.121873</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1562383332689733</v>
+        <v>0.1600119138499044</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02414364014663984</v>
+        <v>0.02596758140953143</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>221</v>
+      </c>
+      <c r="J100" t="n">
+        <v>473</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2453462754.24123</v>
+        <v>2601386385.622552</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2065674427856284</v>
+        <v>0.1706539615687498</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05236451781541347</v>
+        <v>0.05227491960749475</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
